--- a/covid19-españa-sir.xlsx
+++ b/covid19-españa-sir.xlsx
@@ -92,6 +92,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -268,7 +269,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -288,7 +289,7 @@
               <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
                 <a:latin typeface="IBM Plex Sans"/>
               </a:rPr>
-              <a:t>CODIV 19 España</a:t>
+              <a:t>CODIV 19 España - Infectados y Recuperados (o fallecidos) modelo SIR</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -353,6 +354,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1015,6 +1017,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1630,11 +1633,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="42230827"/>
-        <c:axId val="17669747"/>
+        <c:axId val="15713102"/>
+        <c:axId val="83437166"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42230827"/>
+        <c:axId val="15713102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43885"/>
@@ -1700,14 +1703,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17669747"/>
+        <c:crossAx val="83437166"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
         <c:minorUnit val="7"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17669747"/>
+        <c:axId val="83437166"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1747,8 +1750,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00867892086625455"/>
-              <c:y val="0.690938995215311"/>
+              <c:x val="0.00876151484135108"/>
+              <c:y val="0.690808493669624"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1781,7 +1784,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42230827"/>
+        <c:crossAx val="15713102"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1841,7 +1844,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1861,7 +1864,7 @@
               <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
                 <a:latin typeface="IBM Plex Sans"/>
               </a:rPr>
-              <a:t>CODIV 19 España</a:t>
+              <a:t>CODIV 19 España - Factor Reproductivo básico R0</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1926,6 +1929,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2397,11 +2401,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96263781"/>
-        <c:axId val="78875834"/>
+        <c:axId val="66804456"/>
+        <c:axId val="82962397"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96263781"/>
+        <c:axId val="66804456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43899"/>
@@ -2467,14 +2471,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78875834"/>
+        <c:crossAx val="82962397"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
         <c:minorUnit val="7"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78875834"/>
+        <c:axId val="82962397"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2540,7 +2544,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96263781"/>
+        <c:crossAx val="66804456"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2579,9 +2583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>110880</xdr:colOff>
+      <xdr:colOff>110160</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>220680</xdr:rowOff>
+      <xdr:rowOff>219960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2590,7 +2594,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1883880" y="930240"/>
-        <a:ext cx="8793360" cy="7222680"/>
+        <a:ext cx="8792640" cy="7221960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2609,9 +2613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>98280</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2620,7 +2624,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11625480" y="1004040"/>
-        <a:ext cx="8793360" cy="7222680"/>
+        <a:ext cx="8792640" cy="7221960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2647,17 +2651,17 @@
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="23.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="23.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="2" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="2" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="29.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="26.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="17" style="2" width="11.52"/>
@@ -7550,7 +7554,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N34" activeCellId="0" sqref="N34"/>
+      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7560,7 +7564,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>

--- a/covid19-españa-sir.xlsx
+++ b/covid19-españa-sir.xlsx
@@ -364,10 +364,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos (datadista)'!$A$2:$A$99</c:f>
+              <c:f>'Datos (datadista)'!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43886</c:v>
                 </c:pt>
@@ -516,161 +516,23 @@
                   <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>49</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos (datadista)'!$G$2:$G$99</c:f>
+              <c:f>'Datos (datadista)'!$G$2:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -819,150 +681,12 @@
                   <c:v>169496</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>172541</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>177633</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -988,7 +712,7 @@
             <a:solidFill>
               <a:srgbClr val="00a933"/>
             </a:solidFill>
-            <a:ln w="72000">
+            <a:ln w="36000">
               <a:solidFill>
                 <a:srgbClr val="00a933"/>
               </a:solidFill>
@@ -1027,10 +751,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos (datadista)'!$A$2:$A$99</c:f>
+              <c:f>'Datos (datadista)'!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43886</c:v>
                 </c:pt>
@@ -1179,161 +903,23 @@
                   <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>49</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos (datadista)'!$H$2:$H$99</c:f>
+              <c:f>'Datos (datadista)'!$H$2:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1482,150 +1068,12 @@
                   <c:v>82216</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>85560</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>89432</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1633,11 +1081,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15713102"/>
-        <c:axId val="83437166"/>
+        <c:axId val="7981486"/>
+        <c:axId val="838063"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15713102"/>
+        <c:axId val="7981486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43885"/>
@@ -1703,14 +1151,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83437166"/>
+        <c:crossAx val="838063"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
         <c:minorUnit val="7"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83437166"/>
+        <c:axId val="838063"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1750,8 +1198,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00876151484135108"/>
-              <c:y val="0.690808493669624"/>
+              <c:x val="0.00880317733284199"/>
+              <c:y val="0.690677966101695"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1784,7 +1232,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15713102"/>
+        <c:crossAx val="7981486"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1898,11 +1346,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00a933"/>
+              <a:srgbClr val="0000ff"/>
             </a:solidFill>
             <a:ln w="36000">
               <a:solidFill>
-                <a:srgbClr val="00a933"/>
+                <a:srgbClr val="0000ff"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1912,7 +1360,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00a933"/>
+                <a:srgbClr val="0000ff"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -1939,10 +1387,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos (datadista)'!$A$2:$A$99</c:f>
+              <c:f>'Datos (datadista)'!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43886</c:v>
                 </c:pt>
@@ -2091,161 +1539,23 @@
                   <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>49</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos (datadista)'!$P$1:$P$50</c:f>
+              <c:f>'Datos (datadista)'!$P$1:$P$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
@@ -2395,17 +1705,26 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2.2311975665611</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.92160765456303</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.32890417336275</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66804456"/>
-        <c:axId val="82962397"/>
+        <c:axId val="98412077"/>
+        <c:axId val="32900935"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66804456"/>
+        <c:axId val="98412077"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43899"/>
@@ -2471,14 +1790,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82962397"/>
+        <c:crossAx val="32900935"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
         <c:minorUnit val="7"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82962397"/>
+        <c:axId val="32900935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2544,7 +1863,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66804456"/>
+        <c:crossAx val="98412077"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2583,9 +1902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>110160</xdr:colOff>
+      <xdr:colOff>109440</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>219960</xdr:rowOff>
+      <xdr:rowOff>219240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2594,7 +1913,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1883880" y="930240"/>
-        <a:ext cx="8792640" cy="7221960"/>
+        <a:ext cx="8791920" cy="7221240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2613,9 +1932,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
+      <xdr:colOff>97560</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2624,7 +1943,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11625480" y="1004040"/>
-        <a:ext cx="8792640" cy="7221960"/>
+        <a:ext cx="8791920" cy="7221240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2642,10 +1961,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ99"/>
+  <dimension ref="A1:AMJ142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5478,90 +4797,117 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>43935</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>172541</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>67504</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>18056</v>
+      </c>
       <c r="G51" s="2" t="n">
         <f aca="false">B51</f>
-        <v>0</v>
+        <v>172541</v>
       </c>
       <c r="H51" s="2" t="n">
         <f aca="false">C51+D51</f>
-        <v>0</v>
+        <v>85560</v>
       </c>
       <c r="I51" s="2" t="n">
         <f aca="false">$X$2-G51-H51</f>
-        <v>45000000</v>
+        <v>44741899</v>
       </c>
       <c r="J51" s="2" t="n">
         <f aca="false">G51-G50</f>
-        <v>-169496</v>
+        <v>3045</v>
       </c>
       <c r="K51" s="2" t="n">
         <f aca="false">H51-H50</f>
-        <v>-82216</v>
+        <v>3344</v>
       </c>
       <c r="L51" s="2" t="n">
         <f aca="false">I51-I50</f>
-        <v>251712</v>
-      </c>
-      <c r="M51" s="2" t="e">
+        <v>-6389</v>
+      </c>
+      <c r="M51" s="2" t="n">
         <f aca="false">K51/G51</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N51" s="2" t="e">
+        <v>0.0193809007714109</v>
+      </c>
+      <c r="N51" s="2" t="n">
         <f aca="false">-$X$2*L51/G51/I51</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O51" s="2" t="e">
+        <v>0.0372424872746697</v>
+      </c>
+      <c r="O51" s="2" t="n">
         <f aca="false">(J51+K51)*$X$2/G51/I51</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P51" s="2" t="e">
+        <v>0.0372424872746697</v>
+      </c>
+      <c r="P51" s="2" t="n">
         <f aca="false">N51/M51</f>
-        <v>#DIV/0!</v>
+        <v>1.92160765456303</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>43936</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>177633</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>70853</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>18579</v>
+      </c>
       <c r="G52" s="2" t="n">
         <f aca="false">B52</f>
-        <v>0</v>
+        <v>177633</v>
       </c>
       <c r="H52" s="2" t="n">
         <f aca="false">C52+D52</f>
-        <v>0</v>
+        <v>89432</v>
       </c>
       <c r="I52" s="2" t="n">
         <f aca="false">$X$2-G52-H52</f>
-        <v>45000000</v>
+        <v>44732935</v>
       </c>
       <c r="J52" s="2" t="n">
         <f aca="false">G52-G51</f>
-        <v>0</v>
+        <v>5092</v>
       </c>
       <c r="K52" s="2" t="n">
         <f aca="false">H52-H51</f>
-        <v>0</v>
+        <v>3872</v>
       </c>
       <c r="L52" s="2" t="n">
         <f aca="false">I52-I51</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="2" t="e">
+        <v>-8964</v>
+      </c>
+      <c r="M52" s="2" t="n">
         <f aca="false">K52/G52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N52" s="2" t="e">
+        <v>0.0217977515439136</v>
+      </c>
+      <c r="N52" s="2" t="n">
         <f aca="false">-$X$2*L52/G52/I52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O52" s="2" t="e">
+        <v>0.0507648745405446</v>
+      </c>
+      <c r="O52" s="2" t="n">
         <f aca="false">(J52+K52)*$X$2/G52/I52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P52" s="2" t="e">
+        <v>0.0507648745405446</v>
+      </c>
+      <c r="P52" s="2" t="n">
         <f aca="false">N52/M52</f>
-        <v>#DIV/0!</v>
+        <v>2.32890417336275</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>43937</v>
+      </c>
       <c r="G53" s="2" t="n">
         <f aca="false">B53</f>
         <v>0</v>
@@ -5576,15 +4922,15 @@
       </c>
       <c r="J53" s="2" t="n">
         <f aca="false">G53-G52</f>
-        <v>0</v>
+        <v>-177633</v>
       </c>
       <c r="K53" s="2" t="n">
         <f aca="false">H53-H52</f>
-        <v>0</v>
+        <v>-89432</v>
       </c>
       <c r="L53" s="2" t="n">
         <f aca="false">I53-I52</f>
-        <v>0</v>
+        <v>267065</v>
       </c>
       <c r="M53" s="2" t="e">
         <f aca="false">K53/G53</f>
@@ -5604,6 +4950,9 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>43938</v>
+      </c>
       <c r="G54" s="2" t="n">
         <f aca="false">B54</f>
         <v>0</v>
@@ -5646,6 +4995,9 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>43939</v>
+      </c>
       <c r="G55" s="2" t="n">
         <f aca="false">B55</f>
         <v>0</v>
@@ -5688,6 +5040,9 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>43940</v>
+      </c>
       <c r="G56" s="2" t="n">
         <f aca="false">B56</f>
         <v>0</v>
@@ -5730,6 +5085,9 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>43941</v>
+      </c>
       <c r="G57" s="2" t="n">
         <f aca="false">B57</f>
         <v>0</v>
@@ -5772,6 +5130,9 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>43942</v>
+      </c>
       <c r="G58" s="2" t="n">
         <f aca="false">B58</f>
         <v>0</v>
@@ -5814,6 +5175,9 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>43943</v>
+      </c>
       <c r="G59" s="2" t="n">
         <f aca="false">B59</f>
         <v>0</v>
@@ -5856,6 +5220,9 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>43944</v>
+      </c>
       <c r="G60" s="2" t="n">
         <f aca="false">B60</f>
         <v>0</v>
@@ -5898,6 +5265,9 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>43945</v>
+      </c>
       <c r="G61" s="2" t="n">
         <f aca="false">B61</f>
         <v>0</v>
@@ -5940,6 +5310,9 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>43946</v>
+      </c>
       <c r="G62" s="2" t="n">
         <f aca="false">B62</f>
         <v>0</v>
@@ -5982,6 +5355,9 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>43947</v>
+      </c>
       <c r="G63" s="2" t="n">
         <f aca="false">B63</f>
         <v>0</v>
@@ -6024,6 +5400,9 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>43948</v>
+      </c>
       <c r="G64" s="2" t="n">
         <f aca="false">B64</f>
         <v>0</v>
@@ -6066,6 +5445,9 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>43949</v>
+      </c>
       <c r="G65" s="2" t="n">
         <f aca="false">B65</f>
         <v>0</v>
@@ -6108,6 +5490,9 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>43950</v>
+      </c>
       <c r="G66" s="2" t="n">
         <f aca="false">B66</f>
         <v>0</v>
@@ -6150,6 +5535,9 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>43951</v>
+      </c>
       <c r="G67" s="2" t="n">
         <f aca="false">B67</f>
         <v>0</v>
@@ -6192,6 +5580,9 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>43952</v>
+      </c>
       <c r="G68" s="2" t="n">
         <f aca="false">B68</f>
         <v>0</v>
@@ -6234,6 +5625,9 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>43953</v>
+      </c>
       <c r="G69" s="2" t="n">
         <f aca="false">B69</f>
         <v>0</v>
@@ -6276,6 +5670,9 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>43954</v>
+      </c>
       <c r="G70" s="2" t="n">
         <f aca="false">B70</f>
         <v>0</v>
@@ -6318,6 +5715,9 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>43955</v>
+      </c>
       <c r="G71" s="2" t="n">
         <f aca="false">B71</f>
         <v>0</v>
@@ -6360,6 +5760,9 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>43956</v>
+      </c>
       <c r="G72" s="2" t="n">
         <f aca="false">B72</f>
         <v>0</v>
@@ -6402,6 +5805,9 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>43957</v>
+      </c>
       <c r="G73" s="2" t="n">
         <f aca="false">B73</f>
         <v>0</v>
@@ -6444,6 +5850,9 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>43958</v>
+      </c>
       <c r="G74" s="2" t="n">
         <f aca="false">B74</f>
         <v>0</v>
@@ -6486,6 +5895,9 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>43959</v>
+      </c>
       <c r="G75" s="2" t="n">
         <f aca="false">B75</f>
         <v>0</v>
@@ -6528,6 +5940,9 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>43960</v>
+      </c>
       <c r="G76" s="2" t="n">
         <f aca="false">B76</f>
         <v>0</v>
@@ -6570,6 +5985,9 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>43961</v>
+      </c>
       <c r="G77" s="2" t="n">
         <f aca="false">B77</f>
         <v>0</v>
@@ -6612,6 +6030,9 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>43962</v>
+      </c>
       <c r="G78" s="2" t="n">
         <f aca="false">B78</f>
         <v>0</v>
@@ -6654,6 +6075,9 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>43963</v>
+      </c>
       <c r="G79" s="2" t="n">
         <f aca="false">B79</f>
         <v>0</v>
@@ -6696,6 +6120,9 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>43964</v>
+      </c>
       <c r="G80" s="2" t="n">
         <f aca="false">B80</f>
         <v>0</v>
@@ -6738,6 +6165,9 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>43965</v>
+      </c>
       <c r="G81" s="2" t="n">
         <f aca="false">B81</f>
         <v>0</v>
@@ -6780,6 +6210,9 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>43966</v>
+      </c>
       <c r="G82" s="2" t="n">
         <f aca="false">B82</f>
         <v>0</v>
@@ -6822,6 +6255,9 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>43967</v>
+      </c>
       <c r="G83" s="2" t="n">
         <f aca="false">B83</f>
         <v>0</v>
@@ -6864,6 +6300,9 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>43968</v>
+      </c>
       <c r="G84" s="2" t="n">
         <f aca="false">B84</f>
         <v>0</v>
@@ -6906,6 +6345,9 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>43969</v>
+      </c>
       <c r="G85" s="2" t="n">
         <f aca="false">B85</f>
         <v>0</v>
@@ -6948,6 +6390,9 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>43970</v>
+      </c>
       <c r="G86" s="2" t="n">
         <f aca="false">B86</f>
         <v>0</v>
@@ -6990,6 +6435,9 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>43971</v>
+      </c>
       <c r="G87" s="2" t="n">
         <f aca="false">B87</f>
         <v>0</v>
@@ -7032,6 +6480,9 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>43972</v>
+      </c>
       <c r="G88" s="2" t="n">
         <f aca="false">B88</f>
         <v>0</v>
@@ -7074,6 +6525,9 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>43973</v>
+      </c>
       <c r="G89" s="2" t="n">
         <f aca="false">B89</f>
         <v>0</v>
@@ -7116,6 +6570,9 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>43974</v>
+      </c>
       <c r="G90" s="2" t="n">
         <f aca="false">B90</f>
         <v>0</v>
@@ -7158,6 +6615,9 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>43975</v>
+      </c>
       <c r="G91" s="2" t="n">
         <f aca="false">B91</f>
         <v>0</v>
@@ -7200,6 +6660,9 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>43976</v>
+      </c>
       <c r="G92" s="2" t="n">
         <f aca="false">B92</f>
         <v>0</v>
@@ -7242,6 +6705,9 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>43977</v>
+      </c>
       <c r="G93" s="2" t="n">
         <f aca="false">B93</f>
         <v>0</v>
@@ -7284,6 +6750,9 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>43978</v>
+      </c>
       <c r="G94" s="2" t="n">
         <f aca="false">B94</f>
         <v>0</v>
@@ -7326,6 +6795,9 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>43979</v>
+      </c>
       <c r="G95" s="2" t="n">
         <f aca="false">B95</f>
         <v>0</v>
@@ -7368,6 +6840,9 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>43980</v>
+      </c>
       <c r="G96" s="2" t="n">
         <f aca="false">B96</f>
         <v>0</v>
@@ -7410,6 +6885,9 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>43981</v>
+      </c>
       <c r="G97" s="2" t="n">
         <f aca="false">B97</f>
         <v>0</v>
@@ -7452,6 +6930,9 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="G98" s="2" t="n">
         <f aca="false">B98</f>
         <v>0</v>
@@ -7494,6 +6975,9 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>43983</v>
+      </c>
       <c r="G99" s="2" t="n">
         <f aca="false">B99</f>
         <v>0</v>
@@ -7533,6 +7017,221 @@
       <c r="P99" s="2" t="e">
         <f aca="false">N99/M99</f>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>44017</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>44026</v>
       </c>
     </row>
   </sheetData>
@@ -7554,7 +7253,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+      <selection pane="topLeft" activeCell="O40" activeCellId="0" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
